--- a/1_skills/Herbalism.xlsx
+++ b/1_skills/Herbalism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Bez\1_studie\Github\dnd_resources\1_skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D2CA0-21D4-434B-97E5-2A6D8086BB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BFB3FB-B768-4971-AEE6-1E42FED66873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
@@ -6106,14 +6106,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6130,280 +6130,10 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color rgb="FF0000FF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -7057,6 +6787,276 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7071,83 +7071,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BD601184-9100-4B46-A2AE-BD2A56593ED1}" name="Table6" displayName="Table6" ref="A1:K132" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BD601184-9100-4B46-A2AE-BD2A56593ED1}" name="Table6" displayName="Table6" ref="A1:K132" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A1:K132" xr:uid="{04CFB457-48C6-4235-841E-3BB7F7862CEF}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{04AAEEF4-49CB-4CD6-8490-AC6AD8DFDD58}" name="Ingredients" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{08645154-EA89-47D4-8A2A-667F5BF8096B}" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{EDECA073-5B9C-46CB-8B03-C7C851F36ECB}" name="Effect" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{4DCE1D15-6AC1-4373-B5CA-E438E13C70B2}" name="Used in" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{1453B476-CFF8-48A5-B37D-ABCBFE5B3AF7}" name="Type" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{750761FF-8B84-4FC7-A28E-806052707094}" name="Location" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A5A1540A-17A2-457C-98AA-FD1EDB3E35B1}" name="Rarity" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{C7878009-D337-4440-907C-CE485F76BDFD}" name="DC (13) Modifier" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{46FAB271-FB50-48F8-B561-C518AFADE821}" name="Quantity" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E752BCB8-5640-44DA-A2DE-DABAD8C43484}" name="Harvest with" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{FB3130BC-72BA-460D-B096-6A556572C6EF}" name="Source" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{04AAEEF4-49CB-4CD6-8490-AC6AD8DFDD58}" name="Ingredients" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{08645154-EA89-47D4-8A2A-667F5BF8096B}" name="Description" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{EDECA073-5B9C-46CB-8B03-C7C851F36ECB}" name="Effect" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{4DCE1D15-6AC1-4373-B5CA-E438E13C70B2}" name="Used in" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{1453B476-CFF8-48A5-B37D-ABCBFE5B3AF7}" name="Type" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{750761FF-8B84-4FC7-A28E-806052707094}" name="Location" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{A5A1540A-17A2-457C-98AA-FD1EDB3E35B1}" name="Rarity" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{C7878009-D337-4440-907C-CE485F76BDFD}" name="DC (13) Modifier" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{46FAB271-FB50-48F8-B561-C518AFADE821}" name="Quantity" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{E752BCB8-5640-44DA-A2DE-DABAD8C43484}" name="Harvest with" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{FB3130BC-72BA-460D-B096-6A556572C6EF}" name="Source" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5BBF806-49AF-4B21-8548-73329D207403}" name="Table3" displayName="Table3" ref="A1:K122" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5BBF806-49AF-4B21-8548-73329D207403}" name="Table3" displayName="Table3" ref="A1:K122" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:K122" xr:uid="{42AB6106-DC4D-42F7-9A5C-B79479A04989}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DEFA9E05-650A-4169-B7ED-743D80F20358}" name="Ingredients" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{2F94BA0B-DB82-43E8-A77F-D719A9BC439B}" name="Description" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{E0803599-5984-4E1A-B392-69F31847E39C}" name="Effect" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{13533EDA-0D05-4EF6-B8F4-D1B8369F815D}" name="Used in" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{20BEC0BD-D85E-4DC7-B437-A5FFE4CB75B9}" name="Type" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{DD6C4F98-BD84-4EF8-9D44-3C62AE9D4040}" name="Location" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{8925A838-3AAD-466C-A8E4-5DA7829F0898}" name="Rarity" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{58ED90E3-0378-4FD0-8221-C0EC6645B67B}" name="DC (13) Modifier" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{9B7FA8F2-1731-4EB9-BDE1-8F0D6676FE31}" name="Quantity" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{DDC46E71-87C9-4A7E-B95A-DD281329BD5F}" name="Harvest with" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{6AF9C7FB-EF07-432D-ABB3-B9F5030556A4}" name="Source" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{DEFA9E05-650A-4169-B7ED-743D80F20358}" name="Ingredients" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{2F94BA0B-DB82-43E8-A77F-D719A9BC439B}" name="Description" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{E0803599-5984-4E1A-B392-69F31847E39C}" name="Effect" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{13533EDA-0D05-4EF6-B8F4-D1B8369F815D}" name="Used in" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{20BEC0BD-D85E-4DC7-B437-A5FFE4CB75B9}" name="Type" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{DD6C4F98-BD84-4EF8-9D44-3C62AE9D4040}" name="Location" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{8925A838-3AAD-466C-A8E4-5DA7829F0898}" name="Rarity" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{58ED90E3-0378-4FD0-8221-C0EC6645B67B}" name="DC (13) Modifier" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{9B7FA8F2-1731-4EB9-BDE1-8F0D6676FE31}" name="Quantity" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{DDC46E71-87C9-4A7E-B95A-DD281329BD5F}" name="Harvest with" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{6AF9C7FB-EF07-432D-ABB3-B9F5030556A4}" name="Source" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C8E8E6E-94E3-4357-9946-DB08835C13E5}" name="Table1" displayName="Table1" ref="A1:K68" totalsRowShown="0" headerRowDxfId="39" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C8E8E6E-94E3-4357-9946-DB08835C13E5}" name="Table1" displayName="Table1" ref="A1:K68" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:K68" xr:uid="{E7ADF93C-5AC8-4313-846A-D93A42B16A80}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E714DAD7-F4EB-483B-B1AF-41884E76A5E9}" name="Ingredients" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{1EDBDE45-C3E9-4118-B655-9150A29032E7}" name="Description" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{B333247D-B451-4AC1-BEFF-36058D221C3C}" name="Effect" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{91947D53-D1B4-4652-ADD4-FB8EEB2137BC}" name="Used in" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{AA0FB790-E2F4-4806-A8DE-0AEAFFE2216C}" name="Type" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{61E94812-486A-4B6E-9F00-5DA0BD7651F5}" name="Location" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{04E4711E-897D-43DA-9A8E-368FDF72A94E}" name="Rarity" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{782ACE16-CFE9-4BDA-977F-E49A8ECCDBBC}" name="DC (13) Modifier" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{EFDF48F8-F599-48A2-AD78-C2EE8B83720B}" name="Quantity" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{B85D233C-71E1-4BDA-A21D-A163524736EE}" name="Harvest with" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{6E1A2DDB-CAB7-4EE0-A0EC-E0CA15323565}" name="Source" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{E714DAD7-F4EB-483B-B1AF-41884E76A5E9}" name="Ingredients" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{1EDBDE45-C3E9-4118-B655-9150A29032E7}" name="Description" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B333247D-B451-4AC1-BEFF-36058D221C3C}" name="Effect" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{91947D53-D1B4-4652-ADD4-FB8EEB2137BC}" name="Used in" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{AA0FB790-E2F4-4806-A8DE-0AEAFFE2216C}" name="Type" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{61E94812-486A-4B6E-9F00-5DA0BD7651F5}" name="Location" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{04E4711E-897D-43DA-9A8E-368FDF72A94E}" name="Rarity" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{782ACE16-CFE9-4BDA-977F-E49A8ECCDBBC}" name="DC (13) Modifier" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{EFDF48F8-F599-48A2-AD78-C2EE8B83720B}" name="Quantity" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{B85D233C-71E1-4BDA-A21D-A163524736EE}" name="Harvest with" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{6E1A2DDB-CAB7-4EE0-A0EC-E0CA15323565}" name="Source" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A98DEC8-FECA-4529-AB66-03B1F13ABDF1}" name="Table2" displayName="Table2" ref="A1:K31" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A98DEC8-FECA-4529-AB66-03B1F13ABDF1}" name="Table2" displayName="Table2" ref="A1:K31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K31" xr:uid="{359498F3-2A7D-42A0-B5E0-286E082C337F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
     <sortCondition descending="1" ref="G1:G31"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4FF74ABC-CFF7-41D6-B1A1-56D6D27D56E4}" name="Ingredients" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{4E2277AB-0186-4C83-9996-3723B1673125}" name="Description" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{2B0BF0DC-047D-47AB-9AA8-0DB2CD61F298}" name="Effect" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{4AE34AF1-60BF-4CB1-96CD-3140698F44DB}" name="Used in" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{6D0DA0F7-6B7F-4517-BA1D-8C4382179E82}" name="Type" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{FE997912-F6E1-42B8-9684-8DAD86481C85}" name="Location" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{A53EE708-5CE8-4B93-9FC2-123C7F5FEC26}" name="Rarity" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{F45AB630-E9E9-4F90-8A2F-97E125569B3C}" name="DC (13) Modifier" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{6ED53C98-4F0D-4C77-A207-688F2CED0542}" name="Quantity" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{33801B75-C79E-41E9-93B7-A4D37DAA8207}" name="Harvest with" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{1869E83D-C69C-4AF3-A702-38E5351D7C05}" name="Source" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{4FF74ABC-CFF7-41D6-B1A1-56D6D27D56E4}" name="Ingredients" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4E2277AB-0186-4C83-9996-3723B1673125}" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2B0BF0DC-047D-47AB-9AA8-0DB2CD61F298}" name="Effect" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4AE34AF1-60BF-4CB1-96CD-3140698F44DB}" name="Used in" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{6D0DA0F7-6B7F-4517-BA1D-8C4382179E82}" name="Type" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{FE997912-F6E1-42B8-9684-8DAD86481C85}" name="Location" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A53EE708-5CE8-4B93-9FC2-123C7F5FEC26}" name="Rarity" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{F45AB630-E9E9-4F90-8A2F-97E125569B3C}" name="DC (13) Modifier" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{6ED53C98-4F0D-4C77-A207-688F2CED0542}" name="Quantity" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{33801B75-C79E-41E9-93B7-A4D37DAA8207}" name="Harvest with" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{1869E83D-C69C-4AF3-A702-38E5351D7C05}" name="Source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7455,7 +7455,7 @@
   </sheetPr>
   <dimension ref="A1:K971"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J478" sqref="J478"/>
     </sheetView>
@@ -7471,35 +7471,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="13.2">
-      <c r="A2" s="13" t="str">
+      <c r="A2" s="14" t="str">
         <f>HYPERLINK("https://www.flutesloot.com/5e-crafting-magic-items/","Please check out our Guide to Crafting Magic Items in 5e, available only on FlutesLoot.com.")</f>
         <v>Please check out our Guide to Crafting Magic Items in 5e, available only on FlutesLoot.com.</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="26.4">
       <c r="A3" s="1" t="s">
@@ -30212,8 +30212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2961EFE-F4E0-423A-8BA2-C89BB0970265}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -30308,7 +30308,7 @@
         <v>1915</v>
       </c>
       <c r="N2">
-        <f>ROUNDDOWN(N1 * (130/200),0) + 2</f>
+        <f>ROUNDDOWN(N1 * (131/200),0) + 1</f>
         <v>132</v>
       </c>
     </row>
@@ -34838,8 +34838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D700272-1083-49F0-B696-60567156F40D}">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -34895,7 +34895,7 @@
         <v>1918</v>
       </c>
       <c r="N1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="92.4">
@@ -34934,8 +34934,8 @@
         <v>1915</v>
       </c>
       <c r="N2">
-        <f>ROUNDDOWN(N1 * (120/200),0) + 2</f>
-        <v>62</v>
+        <f>ROUNDDOWN(N1 * (121/200),0) + 1</f>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="105.6">
@@ -39108,8 +39108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9056170-9B79-4CB9-93B1-619DF1D00FE1}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="M1:N2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -41473,7 +41473,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="14"/>
+      <c r="K68" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41487,8 +41487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452328D6-9BA5-47E0-A41F-16AE59C332FC}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
